--- a/biology/Botanique/Gymnocladus_dioica/Gymnocladus_dioica.xlsx
+++ b/biology/Botanique/Gymnocladus_dioica/Gymnocladus_dioica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chicot du Canada[3] ou gymnocladier dioïque, Gymnocladus dioicus, aussi parfois appelé « gros févier », « bonduc »[4] ou « arbre à café du Kentucky », est une espèce d'arbre du genre Gymnocladus. Il appartient à la sous-famille des Caesalpinioideae de la famille des Fabaceae.  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chicot du Canada ou gymnocladier dioïque, Gymnocladus dioicus, aussi parfois appelé « gros févier », « bonduc » ou « arbre à café du Kentucky », est une espèce d'arbre du genre Gymnocladus. Il appartient à la sous-famille des Caesalpinioideae de la famille des Fabaceae.  
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre de dimension moyenne avec un tronc assez droit et un houppier assez léger en dôme, mesurant jusqu'à 20 m de haut. 
 Le caractère de détermination principal est constitué par ses très grandes feuilles composées bipennées (doublement subdivisées) qui peuvent atteindre 1 m de longueur. Les folioles sont donc eux-mêmes composées, et ressemblent aux feuilles pennées entières des robiniers ou du sophora. On peut ainsi facilement confondre au premier abord ces feuilles avec des rameaux feuillés. La feuillaison est tardive. Le feuillage devient jaune en automne. 
@@ -545,9 +559,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Gymnocladus est masculin, car c'est un dérivé de -cladus, qui vient du grec klados, lui-même masculin (article 62.2 du code de nomenclature). Synonyme reconnu : Gymnocladus canadensis Lamarck. Les noms vernaculaires suivants sont de plus utilisés : bonduc, chicot, chicot du Canada, gros févier et gymnocladier dioïque [4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Gymnocladus est masculin, car c'est un dérivé de -cladus, qui vient du grec klados, lui-même masculin (article 62.2 du code de nomenclature). Synonyme reconnu : Gymnocladus canadensis Lamarck. Les noms vernaculaires suivants sont de plus utilisés : bonduc, chicot, chicot du Canada, gros févier et gymnocladier dioïque .
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gymnocladus dioicus est considéré comme une espèce rare. Elle est présente de manière éparse. Sa distribution naturelle est limitée, présente depuis le sud de l'Ontario au Canada  [4] et aux États-Unis depuis le Kentucky (où les Européens l'ont découverte) et à l'ouest de la Pennsylvanie à l'est, jusqu'au Kansas, à l'est du Nebraska, et au sud-est du Dakota du Sud à l'ouest, jusqu'au sud du Wisconsin et du Michigan au nord, et jusqu'au nord de la Louisiane au sud. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gymnocladus dioicus est considéré comme une espèce rare. Elle est présente de manière éparse. Sa distribution naturelle est limitée, présente depuis le sud de l'Ontario au Canada   et aux États-Unis depuis le Kentucky (où les Européens l'ont découverte) et à l'ouest de la Pennsylvanie à l'est, jusqu'au Kansas, à l'est du Nebraska, et au sud-est du Dakota du Sud à l'ouest, jusqu'au sud du Wisconsin et du Michigan au nord, et jusqu'au nord de la Louisiane au sud. 
 Généralement présent sous la forme d'individus isolés largement disséminées ou de petits groupes avec des systèmes racinaires interconnectés. L'arbre se rencontre dans les plaines inondables et les vallées fluviales mais aussi on la trouve parfois sur les coteaux rocheux et les forêts calcicoles. Dans la partie nord-est de son aire de répartition, des bosquets apparemment naturels de cet arbre sont associés à des sites connus de villages préhistoriques. Dans certaines parties de sa distribution, l'arbre pourrait être utilisé comme un indicateur de la présence de calcaires ou de sols calcaires.
 </t>
         </is>
@@ -608,7 +626,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les graines peuvent être grillées et utilisées comme substitut des grains de café, d'où son nom vernaculaire en anglais « Kentucky coffeetree » ; toutefois, les gousses et les graines crues sont toxiques. 
 Le bois est dur et durable, il est utilisé par les ébénistes et les charpentiers.
